--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C2">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C3">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C3">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="D3">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D3">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>2</v>

--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C2">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="C2">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C3">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="C3">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D3">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>32</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Falcons/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Falcons/2021 Target Depth Data.xlsx
@@ -427,22 +427,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C2">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="C2">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>2</v>
